--- a/Time schedule/Schedule 1.xlsx
+++ b/Time schedule/Schedule 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Project Confidential\Time schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Project Confidential\Patronus Project Latest\Time schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{599FF040-8B7A-442B-88A6-EC31AB40BA0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298ED844-D104-46AC-BF4E-9C96C0BF4033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29CACBE0-C0FE-430B-AB72-9C257D495B3B}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{29CACBE0-C0FE-430B-AB72-9C257D495B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,47 +278,11 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +298,42 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DA3FC-3CD3-41BE-AFFB-BDD5D17EA2A0}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,361 +672,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="25">
         <v>43650</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="25">
         <v>43657</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="21"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="26">
         <v>43657</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="26">
         <v>43664</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="28">
         <v>43664</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="28">
         <v>43671</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="23"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="17">
         <v>43671</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="17">
         <v>43678</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B20" s="19">
         <v>43678</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C20" s="19">
         <v>43685</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="28" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="28" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B27" s="21">
         <v>43685</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C27" s="21">
         <v>43692</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="26"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B2:B5"/>
@@ -1036,6 +1103,11 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
